--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UC\UC-WebApp-HealthCalculators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UC\UC-WebApp-FinanceCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>URL</t>
   </si>
@@ -37,70 +37,160 @@
     <t>MenuIcon</t>
   </si>
   <si>
-    <t>https://www.calculator.net/bmi-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/calorie-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/body-fat-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/bmr-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/ideal-weight-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/pace-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/army-body-fat-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/weight-watchers-points-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/lean-body-mass-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/healthy-weight-calculator.html</t>
-  </si>
-  <si>
-    <t>https://www.calculator.net/calories-burned-calculator.html</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/01.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/02.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/03.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/04.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/05.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/06.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/07.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/08.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/09.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/10.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-HealthCalculators/blob/main/11.png</t>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/01.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/02.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/03.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/04.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/06.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/05.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/07.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/08.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/09.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-FinanceCalculator/main/26.png</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/sip-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/lumpsum-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/swp-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/mutual-fund-returns-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/sukanya-samriddhi-yojana-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/ppf-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/epf-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/fd-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/rd-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/nps-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/hra-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/retirement-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/emi-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/car-loan-emi-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/home-loan-emi-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/simple-interest-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/compound-interest-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/nsc-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/income-tax-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/gratuity-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/apy-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/cagr-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/gst-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/flat-vs-reducing-rate-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/margin-calculator</t>
+  </si>
+  <si>
+    <t>https://groww.in/calculators/brokerage-calculator</t>
   </si>
 </sst>
 </file>
@@ -158,10 +248,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -481,7 +572,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,100 +593,211 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
         <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
@@ -723,17 +925,56 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="B3" r:id="rId26"/>
+    <hyperlink ref="B4" r:id="rId27"/>
+    <hyperlink ref="B5" r:id="rId28"/>
+    <hyperlink ref="B6" r:id="rId29"/>
+    <hyperlink ref="B7" r:id="rId30"/>
+    <hyperlink ref="B8" r:id="rId31"/>
+    <hyperlink ref="B9" r:id="rId32"/>
+    <hyperlink ref="B10" r:id="rId33"/>
+    <hyperlink ref="B11" r:id="rId34"/>
+    <hyperlink ref="B12" r:id="rId35"/>
+    <hyperlink ref="B13" r:id="rId36"/>
+    <hyperlink ref="B14" r:id="rId37"/>
+    <hyperlink ref="B15" r:id="rId38"/>
+    <hyperlink ref="B16" r:id="rId39"/>
+    <hyperlink ref="B17" r:id="rId40"/>
+    <hyperlink ref="B18" r:id="rId41"/>
+    <hyperlink ref="B19" r:id="rId42"/>
+    <hyperlink ref="B20" r:id="rId43"/>
+    <hyperlink ref="B21" r:id="rId44"/>
+    <hyperlink ref="B22" r:id="rId45"/>
+    <hyperlink ref="B23" r:id="rId46"/>
+    <hyperlink ref="B24" r:id="rId47"/>
+    <hyperlink ref="B25" r:id="rId48"/>
+    <hyperlink ref="B27" r:id="rId49"/>
+    <hyperlink ref="B26" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
